--- a/Document/Document.xlsx
+++ b/Document/Document.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>STT</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>Cài NodeJS + Git trước</t>
   </si>
 </sst>
 </file>
@@ -617,7 +620,7 @@
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +628,7 @@
     <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="93" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -704,7 +707,9 @@
       <c r="E6" s="5">
         <v>8</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
@@ -736,13 +741,12 @@
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://nodejs.org/en/"/>
-    <hyperlink ref="D8" r:id="rId6"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Document/Document.xlsx
+++ b/Document/Document.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Soft_ware" sheetId="1" r:id="rId1"/>
     <sheet name="Java_Rules" sheetId="2" r:id="rId2"/>
+    <sheet name="API_RULES" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>STT</t>
   </si>
@@ -77,14 +78,250 @@
     <t>https://code.visualstudio.com/Download</t>
   </si>
   <si>
-    <t>R</t>
+    <t>OBJECT</t>
+  </si>
+  <si>
+    <t>Nội Dung</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Không Nên</t>
+  </si>
+  <si>
+    <t>Không trùng với các “từ khóa”.</t>
+  </si>
+  <si>
+    <t>Không được bắt đầu bằng số.</t>
+  </si>
+  <si>
+    <t>Tên phải được bắt đầu bằng một chữ cái, hoặc các kí tự $ hoặc _</t>
+  </si>
+  <si>
+    <t>Không được chứa khoảng trắng, các ký tự toán học như nhân chia cộng trừ…</t>
+  </si>
+  <si>
+    <t>Không được trùng với một định danh khác trong cùng một phạm vi.</t>
+  </si>
+  <si>
+    <t>Trong Java có phân biệt chữ hoa chữ thường</t>
+  </si>
+  <si>
+    <t>Packages</t>
+  </si>
+  <si>
+    <t>Tên gói viết in thường toàn bộ.</t>
+  </si>
+  <si>
+    <t>mypackage, com.company.application.ui</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Tên Interface nên có thêm chữ I đằng trước</t>
+  </si>
+  <si>
+    <t>IFrame</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Tên lớp dẫn xuất nên có từ Abstract làm tiền tố</t>
+  </si>
+  <si>
+    <t>AbstractStudent</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>viết hoa chữ cái đầu tiên của mỗi từ, nếu tên có nhiều từ thì ghép các từ lại với nhau. Không chứa các từ viết tắt</t>
+  </si>
+  <si>
+    <t> JavaExample, CoffeeReceipt…</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bắt đầu bằng chữ thường, nếu tên có nhiều từ thì ghép các từ lại với nhau. Quy tắc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CamelCase.</t>
+    </r>
+  </si>
+  <si>
+    <t> kind, pricePerPound…</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Từ đầu tiên nên là động từ, bắt đầu bằng một ký tự in thường và các từ tiếp theo sau viết hoa chữ cái đầu tiên.</t>
+  </si>
+  <si>
+    <t>getName(), computeTotalWidth()…</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toàn bộ là chữ in hoa, mỗi từ cần tách biệt với nhau bởi ký tự _ </t>
+  </si>
+  <si>
+    <t>MAX_ITERATIONS, COLOR_RED…</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>static float PI = 3.14f</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <r>
+      <t>enum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ShapeType{SQUARE, CIRCLE, RECTANGLE}</t>
+    </r>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <r>
+      <t>final</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF7F0055"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">PI = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF009900"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.14f;</t>
+    </r>
+  </si>
+  <si>
+    <t>Phương Thức</t>
+  </si>
+  <si>
+    <t>Mục Đích</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>PATCH</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu về</t>
+  </si>
+  <si>
+    <t>Tạo dữ liệu mới</t>
+  </si>
+  <si>
+    <t>Cập nhật 1 dữ liệu</t>
+  </si>
+  <si>
+    <t>Cập nhật nhiều dữ liệu</t>
+  </si>
+  <si>
+    <t>Xóa dữ liệu</t>
+  </si>
+  <si>
+    <t>LinkThamKhảo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +363,84 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF7F0055"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF555555"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF009900"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,8 +459,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -284,6 +633,156 @@
       </right>
       <top style="hair">
         <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -295,7 +794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -331,6 +830,106 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -394,7 +993,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -429,7 +1028,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -606,7 +1205,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -616,16 +1215,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="93" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -646,7 +1245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -748,20 +1347,333 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="116.5546875" customWidth="1"/>
+    <col min="5" max="5" width="56.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:5" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
+      <c r="D3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="15">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="15">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="15">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="15">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="15">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="15">
+        <v>7</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="15">
+        <v>8</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="15">
+        <v>9</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
+        <v>10</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="15">
+        <v>11</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="15">
+        <v>12</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="15">
+        <v>13</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="15">
+        <v>14</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="15">
+        <v>15</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="15">
+        <v>16</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="25" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D16:D19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="16.77734375" style="27"/>
+    <col min="3" max="3" width="6.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="16.77734375" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="3:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C5" s="31">
+        <v>1</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C6" s="34">
+        <v>2</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C7" s="37">
+        <v>3</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C8" s="40">
+        <v>4</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="43">
+        <v>5</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D11" s="46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D11" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Document/Document.xlsx
+++ b/Document/Document.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Soft_ware" sheetId="1" r:id="rId1"/>
     <sheet name="Java_Rules" sheetId="2" r:id="rId2"/>
+    <sheet name="API_RULES" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>STT</t>
   </si>
@@ -77,17 +78,250 @@
     <t>https://code.visualstudio.com/Download</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Cài NodeJS + Git trước</t>
+    <t>OBJECT</t>
+  </si>
+  <si>
+    <t>Nội Dung</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Không Nên</t>
+  </si>
+  <si>
+    <t>Không trùng với các “từ khóa”.</t>
+  </si>
+  <si>
+    <t>Không được bắt đầu bằng số.</t>
+  </si>
+  <si>
+    <t>Tên phải được bắt đầu bằng một chữ cái, hoặc các kí tự $ hoặc _</t>
+  </si>
+  <si>
+    <t>Không được chứa khoảng trắng, các ký tự toán học như nhân chia cộng trừ…</t>
+  </si>
+  <si>
+    <t>Không được trùng với một định danh khác trong cùng một phạm vi.</t>
+  </si>
+  <si>
+    <t>Trong Java có phân biệt chữ hoa chữ thường</t>
+  </si>
+  <si>
+    <t>Packages</t>
+  </si>
+  <si>
+    <t>Tên gói viết in thường toàn bộ.</t>
+  </si>
+  <si>
+    <t>mypackage, com.company.application.ui</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Tên Interface nên có thêm chữ I đằng trước</t>
+  </si>
+  <si>
+    <t>IFrame</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Tên lớp dẫn xuất nên có từ Abstract làm tiền tố</t>
+  </si>
+  <si>
+    <t>AbstractStudent</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>viết hoa chữ cái đầu tiên của mỗi từ, nếu tên có nhiều từ thì ghép các từ lại với nhau. Không chứa các từ viết tắt</t>
+  </si>
+  <si>
+    <t> JavaExample, CoffeeReceipt…</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bắt đầu bằng chữ thường, nếu tên có nhiều từ thì ghép các từ lại với nhau. Quy tắc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CamelCase.</t>
+    </r>
+  </si>
+  <si>
+    <t> kind, pricePerPound…</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Từ đầu tiên nên là động từ, bắt đầu bằng một ký tự in thường và các từ tiếp theo sau viết hoa chữ cái đầu tiên.</t>
+  </si>
+  <si>
+    <t>getName(), computeTotalWidth()…</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toàn bộ là chữ in hoa, mỗi từ cần tách biệt với nhau bởi ký tự _ </t>
+  </si>
+  <si>
+    <t>MAX_ITERATIONS, COLOR_RED…</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>static float PI = 3.14f</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <r>
+      <t>enum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ShapeType{SQUARE, CIRCLE, RECTANGLE}</t>
+    </r>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <r>
+      <t>final</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF7F0055"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">PI = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF009900"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.14f;</t>
+    </r>
+  </si>
+  <si>
+    <t>Phương Thức</t>
+  </si>
+  <si>
+    <t>Mục Đích</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>PATCH</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>Lấy dữ liệu về</t>
+  </si>
+  <si>
+    <t>Tạo dữ liệu mới</t>
+  </si>
+  <si>
+    <t>Cập nhật 1 dữ liệu</t>
+  </si>
+  <si>
+    <t>Cập nhật nhiều dữ liệu</t>
+  </si>
+  <si>
+    <t>Xóa dữ liệu</t>
+  </si>
+  <si>
+    <t>LinkThamKhảo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +363,84 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF7F0055"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF555555"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF009900"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,8 +459,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -287,6 +633,156 @@
       </right>
       <top style="hair">
         <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -298,7 +794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -334,6 +830,106 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -397,7 +993,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -432,7 +1028,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -609,7 +1205,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -619,16 +1215,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="93" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -649,7 +1245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -707,9 +1303,7 @@
       <c r="E6" s="5">
         <v>8</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
@@ -741,31 +1335,345 @@
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5" display="https://nodejs.org/en/"/>
+    <hyperlink ref="D8" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="116.5546875" customWidth="1"/>
+    <col min="5" max="5" width="56.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:5" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
+      <c r="D3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="15">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="15">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="15">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="15">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="15">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="15">
+        <v>7</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="15">
+        <v>8</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="15">
+        <v>9</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
+        <v>10</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="15">
+        <v>11</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="15">
+        <v>12</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="15">
+        <v>13</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="15">
+        <v>14</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="15">
+        <v>15</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="15">
+        <v>16</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="25" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D16:D19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="16.77734375" style="27"/>
+    <col min="3" max="3" width="6.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="16.77734375" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="3:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C5" s="31">
+        <v>1</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C6" s="34">
+        <v>2</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C7" s="37">
+        <v>3</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C8" s="40">
+        <v>4</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="43">
+        <v>5</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D11" s="46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D11" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>